--- a/Data/GP2_SENSORY_EVALUATION.xlsx
+++ b/Data/GP2_SENSORY_EVALUATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29D14C-5FE3-4EB7-94D6-978ACD8CC856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BD8AEC-6CB8-4170-8698-68766F5ACF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B420D42F-C11D-408D-BF68-A16750BA046E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B420D42F-C11D-408D-BF68-A16750BA046E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="30">
   <si>
     <t>DIET</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>FEMALE</t>
-  </si>
-  <si>
-    <t>NEITHER LIKE OR DISLIKE</t>
   </si>
   <si>
     <t>DISLIKE SOMEWHAT</t>
@@ -531,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC9CB8C-B8D5-4E1D-9DCC-B9A5A0E33DBB}">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -575,15 +572,15 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -630,30 +627,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -677,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>12</v>
@@ -688,7 +685,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -697,25 +694,25 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>13</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -750,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>13</v>
@@ -758,7 +755,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -770,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -793,7 +790,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -811,24 +808,24 @@
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -840,31 +837,31 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -879,28 +876,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -912,19 +909,19 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>11</v>
@@ -936,7 +933,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -972,7 +969,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -1008,7 +1005,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -1020,10 +1017,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -1032,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>13</v>
@@ -1044,7 +1041,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
@@ -1053,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -1074,13 +1071,13 @@
         <v>11</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
@@ -1089,10 +1086,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -1110,13 +1107,13 @@
         <v>10</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -1125,25 +1122,25 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>13</v>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3">
         <v>17</v>
@@ -1161,13 +1158,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>11</v>
@@ -1176,18 +1173,18 @@
         <v>10</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
@@ -1196,25 +1193,25 @@
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>13</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
@@ -1231,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
@@ -1249,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>13</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
@@ -1267,25 +1264,25 @@
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>13</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
@@ -1302,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>12</v>
@@ -1328,7 +1325,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
@@ -1337,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>12</v>
@@ -1363,7 +1360,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
@@ -1372,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>12</v>
@@ -1393,12 +1390,12 @@
         <v>12</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3">
         <v>24</v>
@@ -1407,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>11</v>
@@ -1416,13 +1413,13 @@
         <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>11</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>25</v>
@@ -1442,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
@@ -1468,7 +1465,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>26</v>
@@ -1477,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
@@ -1486,16 +1483,16 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>13</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>27</v>
@@ -1512,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>12</v>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>28</v>
@@ -1547,16 +1544,16 @@
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>12</v>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3">
         <v>29</v>
@@ -1582,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>12</v>
@@ -1608,7 +1605,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3">
         <v>30</v>
@@ -1617,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>12</v>
@@ -1635,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>13</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3">
         <v>31</v>
@@ -1652,7 +1649,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>12</v>
@@ -1661,10 +1658,10 @@
         <v>11</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>11</v>
@@ -1678,7 +1675,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
@@ -1687,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>10</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3">
         <v>33</v>
@@ -1722,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>11</v>
@@ -1748,7 +1745,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3">
         <v>34</v>
@@ -1757,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>12</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -1795,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -1813,12 +1810,12 @@
         <v>10</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
@@ -1830,30 +1827,30 @@
         <v>9</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
@@ -1865,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
@@ -1888,7 +1885,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -1897,25 +1894,25 @@
         <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>13</v>
@@ -1923,7 +1920,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3">
         <v>5</v>
@@ -1947,18 +1944,18 @@
         <v>10</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3">
         <v>6</v>
@@ -1970,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>11</v>
@@ -1979,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>11</v>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="3">
         <v>7</v>
@@ -2028,7 +2025,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="3">
         <v>8</v>
@@ -2040,7 +2037,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="3">
         <v>9</v>
@@ -2081,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="3">
         <v>10</v>
@@ -2110,30 +2107,30 @@
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3">
         <v>11</v>
@@ -2154,7 +2151,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>11</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3">
         <v>12</v>
@@ -2198,12 +2195,12 @@
         <v>10</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="3">
         <v>13</v>
@@ -2215,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
@@ -2238,7 +2235,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="3">
         <v>14</v>
@@ -2247,25 +2244,25 @@
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>13</v>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="3">
         <v>15</v>
@@ -2282,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>10</v>
@@ -2308,7 +2305,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="3">
         <v>16</v>
@@ -2317,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>12</v>
@@ -2343,7 +2340,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="3">
         <v>17</v>
@@ -2352,10 +2349,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>11</v>
@@ -2373,12 +2370,12 @@
         <v>10</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53" s="3">
         <v>18</v>
@@ -2387,16 +2384,16 @@
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" s="3">
         <v>19</v>
@@ -2422,10 +2419,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>11</v>
@@ -2448,7 +2445,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" s="3">
         <v>20</v>
@@ -2457,25 +2454,25 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>13</v>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" s="3">
         <v>21</v>
@@ -2492,7 +2489,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>12</v>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="3">
         <v>22</v>
@@ -2527,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>11</v>
@@ -2548,12 +2545,12 @@
         <v>10</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" s="3">
         <v>23</v>
@@ -2562,25 +2559,25 @@
         <v>14</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>13</v>
@@ -2588,7 +2585,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" s="3">
         <v>24</v>
@@ -2597,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" s="3">
         <v>25</v>
@@ -2632,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>11</v>
@@ -2658,7 +2655,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" s="3">
         <v>26</v>
@@ -2667,25 +2664,25 @@
         <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>13</v>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" s="3">
         <v>27</v>
@@ -2702,7 +2699,7 @@
         <v>14</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>11</v>
@@ -2728,7 +2725,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="3">
         <v>28</v>
@@ -2737,7 +2734,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
@@ -2751,19 +2748,19 @@
       <c r="H63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>15</v>
+      <c r="I63" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="3">
         <v>29</v>
@@ -2772,7 +2769,7 @@
         <v>14</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>12</v>
@@ -2798,7 +2795,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="3">
         <v>30</v>
@@ -2807,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>12</v>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" s="3">
         <v>31</v>
@@ -2842,25 +2839,25 @@
         <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>13</v>
@@ -2868,7 +2865,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="3">
         <v>32</v>
@@ -2877,7 +2874,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>11</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="3">
         <v>33</v>
@@ -2912,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>11</v>
@@ -2938,7 +2935,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="3">
         <v>34</v>
@@ -2947,25 +2944,25 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>13</v>
@@ -2973,7 +2970,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -3008,7 +3005,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3">
         <v>2</v>
@@ -3020,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>12</v>
@@ -3029,13 +3026,13 @@
         <v>11</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>13</v>
@@ -3043,7 +3040,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="3">
         <v>3</v>
@@ -3073,12 +3070,12 @@
         <v>10</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
@@ -3087,25 +3084,25 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>13</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="3">
         <v>5</v>
@@ -3137,18 +3134,18 @@
         <v>12</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B75" s="3">
         <v>6</v>
@@ -3160,30 +3157,30 @@
         <v>9</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="3">
         <v>7</v>
@@ -3195,30 +3192,30 @@
         <v>9</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="3">
         <v>8</v>
@@ -3230,10 +3227,10 @@
         <v>9</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>10</v>
@@ -3242,18 +3239,18 @@
         <v>10</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" s="3">
         <v>9</v>
@@ -3273,8 +3270,8 @@
       <c r="G78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>15</v>
+      <c r="H78" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>10</v>
@@ -3288,7 +3285,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" s="3">
         <v>10</v>
@@ -3300,10 +3297,10 @@
         <v>9</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>12</v>
@@ -3312,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>10</v>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" s="3">
         <v>11</v>
@@ -3341,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>10</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="3">
         <v>12</v>
@@ -3379,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>10</v>
@@ -3388,12 +3385,12 @@
         <v>10</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82" s="3">
         <v>13</v>
@@ -3405,19 +3402,19 @@
         <v>9</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>10</v>
@@ -3428,7 +3425,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83" s="3">
         <v>14</v>
@@ -3437,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>12</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" s="3">
         <v>15</v>
@@ -3472,7 +3469,7 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>12</v>
@@ -3483,8 +3480,8 @@
       <c r="G84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>15</v>
+      <c r="H84" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>11</v>
@@ -3498,7 +3495,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" s="3">
         <v>16</v>
@@ -3507,25 +3504,25 @@
         <v>8</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>13</v>
@@ -3533,7 +3530,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3">
         <v>17</v>
@@ -3542,10 +3539,10 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>11</v>
@@ -3568,7 +3565,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" s="3">
         <v>18</v>
@@ -3577,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>11</v>
@@ -3603,7 +3600,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88" s="3">
         <v>19</v>
@@ -3612,10 +3609,10 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>12</v>
@@ -3630,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>13</v>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" s="3">
         <v>20</v>
@@ -3647,16 +3644,16 @@
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>11</v>
@@ -3673,7 +3670,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="3">
         <v>21</v>
@@ -3682,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>12</v>
@@ -3708,7 +3705,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" s="3">
         <v>22</v>
@@ -3717,7 +3714,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -3743,7 +3740,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92" s="3">
         <v>23</v>
@@ -3752,25 +3749,25 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>13</v>
@@ -3778,7 +3775,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B93" s="3">
         <v>24</v>
@@ -3787,25 +3784,25 @@
         <v>8</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>13</v>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B94" s="3">
         <v>25</v>
@@ -3822,7 +3819,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>11</v>
@@ -3848,7 +3845,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B95" s="3">
         <v>26</v>
@@ -3857,25 +3854,25 @@
         <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>13</v>
@@ -3883,7 +3880,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B96" s="3">
         <v>27</v>
@@ -3892,10 +3889,10 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>11</v>
@@ -3918,7 +3915,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B97" s="3">
         <v>28</v>
@@ -3927,33 +3924,33 @@
         <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98" s="3">
         <v>29</v>
@@ -3962,7 +3959,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>12</v>
@@ -3988,7 +3985,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99" s="3">
         <v>30</v>
@@ -3997,7 +3994,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>10</v>
@@ -4009,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>11</v>
@@ -4023,7 +4020,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100" s="3">
         <v>31</v>
@@ -4032,7 +4029,7 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>12</v>
@@ -4058,7 +4055,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101" s="3">
         <v>32</v>
@@ -4067,13 +4064,13 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
@@ -4081,8 +4078,8 @@
       <c r="H101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>15</v>
+      <c r="I101" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>10</v>
@@ -4093,7 +4090,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102" s="3">
         <v>33</v>
@@ -4102,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>12</v>
@@ -4128,7 +4125,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" s="3">
         <v>34</v>
@@ -4137,7 +4134,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>11</v>
@@ -4152,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -4163,7 +4160,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -4193,12 +4190,12 @@
         <v>10</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
@@ -4210,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>11</v>
@@ -4225,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>13</v>
@@ -4233,7 +4230,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B106" s="3">
         <v>3</v>
@@ -4248,19 +4245,19 @@
         <v>11</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>13</v>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B107" s="3">
         <v>4</v>
@@ -4277,25 +4274,25 @@
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>13</v>
@@ -4303,7 +4300,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B108" s="3">
         <v>5</v>
@@ -4318,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>12</v>
@@ -4327,10 +4324,10 @@
         <v>12</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>13</v>
@@ -4338,7 +4335,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B109" s="3">
         <v>6</v>
@@ -4365,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>13</v>
@@ -4373,7 +4370,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B110" s="3">
         <v>7</v>
@@ -4393,8 +4390,8 @@
       <c r="G110" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>15</v>
+      <c r="H110" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>11</v>
@@ -4408,7 +4405,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B111" s="3">
         <v>8</v>
@@ -4420,10 +4417,10 @@
         <v>9</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>11</v>
@@ -4432,18 +4429,18 @@
         <v>10</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B112" s="3">
         <v>9</v>
@@ -4455,30 +4452,30 @@
         <v>9</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B113" s="3">
         <v>10</v>
@@ -4490,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>11</v>
@@ -4513,7 +4510,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B114" s="3">
         <v>11</v>
@@ -4548,7 +4545,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B115" s="3">
         <v>12</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B116" s="3">
         <v>13</v>
@@ -4598,27 +4595,27 @@
         <v>12</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117" s="3">
         <v>14</v>
@@ -4627,10 +4624,10 @@
         <v>8</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>12</v>
@@ -4653,7 +4650,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B118" s="3">
         <v>15</v>
@@ -4662,7 +4659,7 @@
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>11</v>
@@ -4671,24 +4668,24 @@
         <v>12</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B119" s="3">
         <v>16</v>
@@ -4697,7 +4694,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>10</v>
@@ -4712,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>12</v>
@@ -4723,7 +4720,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B120" s="3">
         <v>17</v>
@@ -4732,10 +4729,10 @@
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>12</v>
@@ -4758,7 +4755,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B121" s="3">
         <v>18</v>
@@ -4767,7 +4764,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>11</v>
@@ -4788,12 +4785,12 @@
         <v>11</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B122" s="3">
         <v>19</v>
@@ -4802,33 +4799,33 @@
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B123" s="3">
         <v>20</v>
@@ -4837,7 +4834,7 @@
         <v>8</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>11</v>
@@ -4849,21 +4846,21 @@
         <v>12</v>
       </c>
       <c r="H123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K123" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B124" s="3">
         <v>21</v>
@@ -4872,7 +4869,7 @@
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>12</v>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125" s="3">
         <v>22</v>
@@ -4907,7 +4904,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>12</v>
@@ -4922,7 +4919,7 @@
         <v>11</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>10</v>
@@ -4933,7 +4930,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126" s="3">
         <v>23</v>
@@ -4942,7 +4939,7 @@
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>12</v>
@@ -4963,12 +4960,12 @@
         <v>11</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B127" s="3">
         <v>24</v>
@@ -4977,7 +4974,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>11</v>
@@ -4985,17 +4982,17 @@
       <c r="F127" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J127" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>13</v>
@@ -5003,7 +5000,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" s="3">
         <v>25</v>
@@ -5012,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>11</v>
@@ -5033,12 +5030,12 @@
         <v>10</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B129" s="3">
         <v>26</v>
@@ -5047,25 +5044,25 @@
         <v>8</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>13</v>
@@ -5073,7 +5070,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130" s="3">
         <v>27</v>
@@ -5082,10 +5079,10 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>12</v>
@@ -5094,7 +5091,7 @@
         <v>11</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>12</v>
@@ -5108,7 +5105,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131" s="3">
         <v>28</v>
@@ -5117,7 +5114,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>11</v>
@@ -5129,21 +5126,21 @@
         <v>12</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132" s="3">
         <v>29</v>
@@ -5152,13 +5149,13 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>12</v>
@@ -5167,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>12</v>
@@ -5178,7 +5175,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B133" s="3">
         <v>30</v>
@@ -5187,7 +5184,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>11</v>
@@ -5208,12 +5205,12 @@
         <v>10</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B134" s="3">
         <v>31</v>
@@ -5222,13 +5219,13 @@
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>12</v>
@@ -5237,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>12</v>
@@ -5248,7 +5245,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135" s="3">
         <v>32</v>
@@ -5257,13 +5254,13 @@
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>12</v>
@@ -5275,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>13</v>
@@ -5283,7 +5280,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B136" s="3">
         <v>33</v>
@@ -5292,7 +5289,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>11</v>
@@ -5301,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>12</v>
@@ -5318,7 +5315,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B137" s="3">
         <v>34</v>
@@ -5327,7 +5324,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>12</v>

--- a/Data/GP2_SENSORY_EVALUATION.xlsx
+++ b/Data/GP2_SENSORY_EVALUATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BD8AEC-6CB8-4170-8698-68766F5ACF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6B0CF0-44B4-4DF1-9AFD-DF1C062795DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B420D42F-C11D-408D-BF68-A16750BA046E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B420D42F-C11D-408D-BF68-A16750BA046E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
